--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>New file</t>
+    <t>New file is it?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
